--- a/data_excel.xlsx
+++ b/data_excel.xlsx
@@ -16,460 +16,460 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
+    <t>, France.</t>
+  </si>
+  <si>
+    <t>, and putrescine.</t>
+  </si>
+  <si>
+    <t>,  Korea.</t>
+  </si>
+  <si>
+    <t>, 60.</t>
+  </si>
+  <si>
+    <t>, and  Itgb3bp.</t>
+  </si>
+  <si>
+    <t>, and J.</t>
+  </si>
+  <si>
+    <t>, United  States.</t>
+  </si>
+  <si>
+    <t>, i.</t>
+  </si>
+  <si>
+    <t>, Hungary.</t>
+  </si>
+  <si>
+    <t>, China.</t>
+  </si>
+  <si>
     <t>, Co.</t>
   </si>
   <si>
+    <t>, Raleigh 27695.</t>
+  </si>
+  <si>
+    <t>, Tex.</t>
+  </si>
+  <si>
+    <t>,  P.</t>
+  </si>
+  <si>
+    <t>, USA.</t>
+  </si>
+  <si>
+    <t>,  Russia.</t>
+  </si>
+  <si>
+    <t>, p.</t>
+  </si>
+  <si>
+    <t>,  India.</t>
+  </si>
+  <si>
+    <t>,  Canada.</t>
+  </si>
+  <si>
+    <t>, ASCR v.</t>
+  </si>
+  <si>
+    <t>, New York.</t>
+  </si>
+  <si>
+    <t>, Belgium.</t>
+  </si>
+  <si>
+    <t>, Luxembourg.</t>
+  </si>
+  <si>
+    <t>, Poland.</t>
+  </si>
+  <si>
+    <t>, CA 91330.</t>
+  </si>
+  <si>
+    <t>, and PGR.</t>
+  </si>
+  <si>
+    <t>,  USA.</t>
+  </si>
+  <si>
+    <t>, e.</t>
+  </si>
+  <si>
+    <t>,  Japan.</t>
+  </si>
+  <si>
+    <t>,  South Africa.</t>
+  </si>
+  <si>
+    <t>, and aging.</t>
+  </si>
+  <si>
+    <t>, Tours France.</t>
+  </si>
+  <si>
+    <t>, Germany.</t>
+  </si>
+  <si>
+    <t>, and peroxidases.</t>
+  </si>
+  <si>
+    <t>, Weinheim.</t>
+  </si>
+  <si>
+    <t>, MD 20892.</t>
+  </si>
+  <si>
+    <t>, USA wesley.</t>
+  </si>
+  <si>
+    <t>, Massachusetts.</t>
+  </si>
+  <si>
+    <t>, and Deletion.</t>
+  </si>
+  <si>
+    <t>, including mammals.</t>
+  </si>
+  <si>
+    <t>, Maryland.</t>
+  </si>
+  <si>
+    <t>,  respectively.</t>
+  </si>
+  <si>
+    <t>, being D.</t>
+  </si>
+  <si>
+    <t>, Australia.</t>
+  </si>
+  <si>
+    <t>, TX 78712.</t>
+  </si>
+  <si>
+    <t>,  Ireland.</t>
+  </si>
+  <si>
+    <t>, PR China.</t>
+  </si>
+  <si>
+    <t>, Canada.</t>
+  </si>
+  <si>
+    <t>, and biotechnology.</t>
+  </si>
+  <si>
+    <t>,  Iran.</t>
+  </si>
+  <si>
+    <t>,  Spain.</t>
+  </si>
+  <si>
+    <t>, Cat.</t>
+  </si>
+  <si>
+    <t>, etc.</t>
+  </si>
+  <si>
+    <t>, United States.</t>
+  </si>
+  <si>
+    <t>, Gp2.</t>
+  </si>
+  <si>
+    <t>, Pakistan.</t>
+  </si>
+  <si>
+    <t>, USA  sophie.</t>
+  </si>
+  <si>
+    <t>,  Australia.</t>
+  </si>
+  <si>
+    <t>, Univ.</t>
+  </si>
+  <si>
+    <t>, and rice.</t>
+  </si>
+  <si>
+    <t>, Sweden.</t>
+  </si>
+  <si>
+    <t>, CA  91403.</t>
+  </si>
+  <si>
+    <t>,  Shanghai 200031.</t>
+  </si>
+  <si>
+    <t>, degradation.</t>
+  </si>
+  <si>
+    <t>, respectively.</t>
+  </si>
+  <si>
+    <t>, Italy.</t>
+  </si>
+  <si>
+    <t>, D.</t>
+  </si>
+  <si>
+    <t>, NO.</t>
+  </si>
+  <si>
+    <t>, Denmark.</t>
+  </si>
+  <si>
+    <t>, Guangzhou China.</t>
+  </si>
+  <si>
+    <t>, Austria.</t>
+  </si>
+  <si>
+    <t>,  St.</t>
+  </si>
+  <si>
+    <t>, robust logic.</t>
+  </si>
+  <si>
+    <t>, and M.</t>
+  </si>
+  <si>
+    <t>,  Portugal.</t>
+  </si>
+  <si>
+    <t>, India.</t>
+  </si>
+  <si>
+    <t>, NY  10016.</t>
+  </si>
+  <si>
+    <t>, South Africa.</t>
+  </si>
+  <si>
+    <t>, U.</t>
+  </si>
+  <si>
+    <t>, The Netherlands.</t>
+  </si>
+  <si>
+    <t>, New Zealand.</t>
+  </si>
+  <si>
+    <t>, 76.</t>
+  </si>
+  <si>
+    <t>, S.</t>
+  </si>
+  <si>
+    <t>, Czech Republic.</t>
+  </si>
+  <si>
+    <t>, Israel.</t>
+  </si>
+  <si>
+    <t>, and medicine.</t>
+  </si>
+  <si>
+    <t>, Ireland.</t>
+  </si>
+  <si>
+    <t>,  Massachusetts.</t>
+  </si>
+  <si>
+    <t>, Sweden gunnar.</t>
+  </si>
+  <si>
+    <t>, Colorado.</t>
+  </si>
+  <si>
+    <t>, Malta.</t>
+  </si>
+  <si>
+    <t>, Dr.</t>
+  </si>
+  <si>
+    <t>, Japan.</t>
+  </si>
+  <si>
+    <t>, UK.</t>
+  </si>
+  <si>
+    <t>, Russia.</t>
+  </si>
+  <si>
+    <t>, including hypogonadism.</t>
+  </si>
+  <si>
+    <t>, Switzerland.</t>
+  </si>
+  <si>
+    <t>, 32.</t>
+  </si>
+  <si>
+    <t>, B.</t>
+  </si>
+  <si>
     <t>,  and movement.</t>
   </si>
   <si>
-    <t>, p.</t>
-  </si>
-  <si>
-    <t>, i.</t>
-  </si>
-  <si>
-    <t>, robust logic.</t>
-  </si>
-  <si>
-    <t>,  Japan.</t>
+    <t>, Egypt.</t>
+  </si>
+  <si>
+    <t>, Portugal.</t>
+  </si>
+  <si>
+    <t>,  UK.</t>
+  </si>
+  <si>
+    <t>, Korea.</t>
+  </si>
+  <si>
+    <t>, and 27.</t>
+  </si>
+  <si>
+    <t>,  Germany.</t>
+  </si>
+  <si>
+    <t>, Fig.</t>
+  </si>
+  <si>
+    <t>, United Kingdom.</t>
+  </si>
+  <si>
+    <t>, P.</t>
+  </si>
+  <si>
+    <t>, a 1.</t>
+  </si>
+  <si>
+    <t>, v.</t>
+  </si>
+  <si>
+    <t>, Germany  klaus.</t>
+  </si>
+  <si>
+    <t>, Slovakia.</t>
+  </si>
+  <si>
+    <t>, Czech  Republic.</t>
   </si>
   <si>
     <t>,  China.</t>
   </si>
   <si>
-    <t>,  St.</t>
+    <t>, Av.</t>
+  </si>
+  <si>
+    <t>,  Bangladesh.</t>
+  </si>
+  <si>
+    <t>,  Prof.</t>
+  </si>
+  <si>
+    <t>, 5.</t>
+  </si>
+  <si>
+    <t>, Inc.</t>
+  </si>
+  <si>
+    <t>, Govt.</t>
+  </si>
+  <si>
+    <t>, 67.</t>
+  </si>
+  <si>
+    <t>, PR  China.</t>
+  </si>
+  <si>
+    <t>, ToursFrance.</t>
+  </si>
+  <si>
+    <t>,  Israel 3109601.</t>
+  </si>
+  <si>
+    <t>, Alabama.</t>
+  </si>
+  <si>
+    <t>, adaptive immunity.</t>
+  </si>
+  <si>
+    <t>, USA  wesley.</t>
+  </si>
+  <si>
+    <t>, and Itgb3bp.</t>
+  </si>
+  <si>
+    <t>, Brazil.</t>
+  </si>
+  <si>
+    <t>, Spianata S.</t>
+  </si>
+  <si>
+    <t>,  Pennsylvania.</t>
+  </si>
+  <si>
+    <t>,  Taiwan.</t>
+  </si>
+  <si>
+    <t>, New  Zealand.</t>
+  </si>
+  <si>
+    <t>,  Alabama.</t>
+  </si>
+  <si>
+    <t>, No.</t>
+  </si>
+  <si>
+    <t>, The  Netherlands.</t>
   </si>
   <si>
     <t>, N.</t>
   </si>
   <si>
-    <t>, Raleigh 27695.</t>
+    <t>, Indonesia.</t>
+  </si>
+  <si>
+    <t>, Genetalks Inc.</t>
+  </si>
+  <si>
+    <t>, Iran.</t>
   </si>
   <si>
     <t>, product titres.</t>
   </si>
   <si>
-    <t>, South Africa.</t>
-  </si>
-  <si>
-    <t>, Portugal.</t>
-  </si>
-  <si>
-    <t>, New  Zealand.</t>
-  </si>
-  <si>
-    <t>, including mammals.</t>
-  </si>
-  <si>
-    <t>, Pakistan.</t>
-  </si>
-  <si>
-    <t>, CA 91330.</t>
-  </si>
-  <si>
-    <t>, UK.</t>
-  </si>
-  <si>
-    <t>,  Alabama.</t>
-  </si>
-  <si>
-    <t>, Massachusetts.</t>
-  </si>
-  <si>
-    <t>, and Deletion.</t>
-  </si>
-  <si>
-    <t>,  P.</t>
-  </si>
-  <si>
-    <t>,  UK.</t>
-  </si>
-  <si>
-    <t>, and  Itgb3bp.</t>
-  </si>
-  <si>
-    <t>, India.</t>
-  </si>
-  <si>
-    <t>,  Massachusetts.</t>
-  </si>
-  <si>
-    <t>, e.</t>
-  </si>
-  <si>
-    <t>, Slovakia.</t>
-  </si>
-  <si>
-    <t>, Egypt.</t>
-  </si>
-  <si>
-    <t>, No.</t>
-  </si>
-  <si>
-    <t>, and peroxidases.</t>
-  </si>
-  <si>
-    <t>,  Germany.</t>
-  </si>
-  <si>
-    <t>, The  Netherlands.</t>
-  </si>
-  <si>
-    <t>, Cat.</t>
-  </si>
-  <si>
-    <t>, Germany  klaus.</t>
-  </si>
-  <si>
-    <t>, and J.</t>
-  </si>
-  <si>
-    <t>, Hungary.</t>
-  </si>
-  <si>
-    <t>, USA  sophie.</t>
-  </si>
-  <si>
-    <t>, and putrescine.</t>
-  </si>
-  <si>
-    <t>, Guangzhou China.</t>
-  </si>
-  <si>
-    <t>, Czech Republic.</t>
-  </si>
-  <si>
-    <t>, and M.</t>
-  </si>
-  <si>
-    <t>, Denmark.</t>
-  </si>
-  <si>
-    <t>,  Australia.</t>
-  </si>
-  <si>
-    <t>, Indonesia.</t>
-  </si>
-  <si>
-    <t>, Inc.</t>
-  </si>
-  <si>
-    <t>, TX 78712.</t>
-  </si>
-  <si>
-    <t>,  Iran.</t>
-  </si>
-  <si>
-    <t>, NY  10016.</t>
-  </si>
-  <si>
-    <t>,  Canada.</t>
-  </si>
-  <si>
-    <t>, Belgium.</t>
-  </si>
-  <si>
-    <t>, 5.</t>
-  </si>
-  <si>
-    <t>, Dr.</t>
-  </si>
-  <si>
-    <t>, United  States.</t>
-  </si>
-  <si>
-    <t>, China.</t>
-  </si>
-  <si>
-    <t>, Austria.</t>
-  </si>
-  <si>
-    <t>,  Korea.</t>
-  </si>
-  <si>
-    <t>, Univ.</t>
-  </si>
-  <si>
-    <t>,  Taiwan.</t>
-  </si>
-  <si>
-    <t>, ToursFrance.</t>
-  </si>
-  <si>
-    <t>, Malta.</t>
-  </si>
-  <si>
-    <t>, Brazil.</t>
-  </si>
-  <si>
-    <t>,  Ireland.</t>
-  </si>
-  <si>
-    <t>, v.</t>
-  </si>
-  <si>
-    <t>, United States.</t>
-  </si>
-  <si>
-    <t>, Tours France.</t>
-  </si>
-  <si>
-    <t>, ASCR v.</t>
-  </si>
-  <si>
-    <t>, 32.</t>
-  </si>
-  <si>
-    <t>, and medicine.</t>
-  </si>
-  <si>
-    <t>, Iran.</t>
-  </si>
-  <si>
-    <t>, NO.</t>
-  </si>
-  <si>
-    <t>, Korea.</t>
-  </si>
-  <si>
-    <t>, Alabama.</t>
-  </si>
-  <si>
-    <t>, PR  China.</t>
-  </si>
-  <si>
-    <t>, being D.</t>
-  </si>
-  <si>
-    <t>, Govt.</t>
-  </si>
-  <si>
-    <t>, B.</t>
-  </si>
-  <si>
-    <t>, PR China.</t>
-  </si>
-  <si>
-    <t>, D.</t>
-  </si>
-  <si>
-    <t>, adaptive immunity.</t>
+    <t>, Thailand.</t>
   </si>
   <si>
     <t>, and.</t>
   </si>
   <si>
-    <t>, New Zealand.</t>
-  </si>
-  <si>
-    <t>, Japan.</t>
-  </si>
-  <si>
-    <t>, The Netherlands.</t>
+    <t>, Spain.</t>
+  </si>
+  <si>
+    <t>,  Austria.</t>
+  </si>
+  <si>
+    <t>, TX 77030.</t>
+  </si>
+  <si>
+    <t>, genetic etiology.</t>
   </si>
   <si>
     <t>, Washington.</t>
   </si>
   <si>
-    <t>, Genetalks Inc.</t>
-  </si>
-  <si>
-    <t>, Australia.</t>
-  </si>
-  <si>
-    <t>, degradation.</t>
-  </si>
-  <si>
-    <t>, Gp2.</t>
-  </si>
-  <si>
-    <t>, Luxembourg.</t>
-  </si>
-  <si>
-    <t>, USA  wesley.</t>
-  </si>
-  <si>
-    <t>,  respectively.</t>
-  </si>
-  <si>
-    <t>, and PGR.</t>
-  </si>
-  <si>
-    <t>, Spain.</t>
-  </si>
-  <si>
-    <t>, Tex.</t>
-  </si>
-  <si>
-    <t>, Canada.</t>
-  </si>
-  <si>
-    <t>, and aging.</t>
-  </si>
-  <si>
-    <t>, and rice.</t>
-  </si>
-  <si>
-    <t>, 76.</t>
-  </si>
-  <si>
-    <t>, 60.</t>
-  </si>
-  <si>
-    <t>, and Itgb3bp.</t>
-  </si>
-  <si>
-    <t>, Israel.</t>
-  </si>
-  <si>
-    <t>,  Portugal.</t>
-  </si>
-  <si>
-    <t>, CA  91403.</t>
-  </si>
-  <si>
-    <t>, Italy.</t>
-  </si>
-  <si>
-    <t>, Maryland.</t>
-  </si>
-  <si>
-    <t>, Thailand.</t>
-  </si>
-  <si>
-    <t>, Ireland.</t>
-  </si>
-  <si>
-    <t>, a 1.</t>
-  </si>
-  <si>
-    <t>, Av.</t>
-  </si>
-  <si>
-    <t>,  Bangladesh.</t>
-  </si>
-  <si>
-    <t>, TX 77030.</t>
-  </si>
-  <si>
-    <t>, Poland.</t>
-  </si>
-  <si>
-    <t>, Sweden.</t>
-  </si>
-  <si>
-    <t>,  Austria.</t>
-  </si>
-  <si>
-    <t>,  Russia.</t>
-  </si>
-  <si>
-    <t>, France.</t>
-  </si>
-  <si>
-    <t>, 67.</t>
-  </si>
-  <si>
-    <t>,  Shanghai 200031.</t>
-  </si>
-  <si>
-    <t>,  Spain.</t>
-  </si>
-  <si>
-    <t>,  Pennsylvania.</t>
-  </si>
-  <si>
-    <t>, Russia.</t>
-  </si>
-  <si>
-    <t>, etc.</t>
-  </si>
-  <si>
-    <t>, United Kingdom.</t>
-  </si>
-  <si>
-    <t>, Germany.</t>
-  </si>
-  <si>
-    <t>, Weinheim.</t>
-  </si>
-  <si>
-    <t>, and 27.</t>
-  </si>
-  <si>
-    <t>, and biotechnology.</t>
-  </si>
-  <si>
-    <t>, Czech  Republic.</t>
-  </si>
-  <si>
-    <t>,  Israel 3109601.</t>
-  </si>
-  <si>
-    <t>, New York.</t>
-  </si>
-  <si>
-    <t>, genetic etiology.</t>
-  </si>
-  <si>
-    <t>, U.</t>
-  </si>
-  <si>
-    <t>,  USA.</t>
-  </si>
-  <si>
-    <t>, Switzerland.</t>
-  </si>
-  <si>
-    <t>,  Prof.</t>
-  </si>
-  <si>
-    <t>, Colorado.</t>
-  </si>
-  <si>
-    <t>,  South Africa.</t>
-  </si>
-  <si>
-    <t>, S.</t>
-  </si>
-  <si>
-    <t>, USA wesley.</t>
-  </si>
-  <si>
-    <t>, Sweden gunnar.</t>
-  </si>
-  <si>
-    <t>, Spianata S.</t>
-  </si>
-  <si>
-    <t>, including hypogonadism.</t>
+    <t>, 2.</t>
   </si>
   <si>
     <t>,  France.</t>
   </si>
   <si>
-    <t>, 2.</t>
-  </si>
-  <si>
-    <t>, P.</t>
-  </si>
-  <si>
-    <t>, MD 20892.</t>
-  </si>
-  <si>
-    <t>, USA.</t>
-  </si>
-  <si>
     <t>, 57.</t>
-  </si>
-  <si>
-    <t>,  India.</t>
-  </si>
-  <si>
-    <t>, Fig.</t>
-  </si>
-  <si>
-    <t>, respectively.</t>
   </si>
 </sst>
 </file>
